--- a/data/trans_orig/P19D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Habitat-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5945</v>
+        <v>6854</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003628628049224462</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01104812371963222</v>
+        <v>0.01273726223700649</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6680</v>
+        <v>6860</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00192194050476563</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00657528815633212</v>
+        <v>0.006752025657288201</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>438702</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>423569</v>
+        <v>425436</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>449354</v>
+        <v>449733</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9180986850348952</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8864305243527184</v>
+        <v>0.8903370859044585</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9403920384597972</v>
+        <v>0.9411853057835369</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>510</v>
@@ -828,19 +828,19 @@
         <v>502904</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>490143</v>
+        <v>491006</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>512779</v>
+        <v>512841</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9345855506731978</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9108705343625358</v>
+        <v>0.9124741574921855</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9529361130852428</v>
+        <v>0.9530516578212993</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>944</v>
@@ -849,19 +849,19 @@
         <v>941606</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>925631</v>
+        <v>924719</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>958155</v>
+        <v>956390</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9268311245236036</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9111065574414354</v>
+        <v>0.9102095323357779</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9431207566485011</v>
+        <v>0.9413838007015473</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>6737</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2696</v>
+        <v>2887</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14130</v>
+        <v>15545</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01409875780575764</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005642979824183845</v>
+        <v>0.006041831571963017</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02957108995435311</v>
+        <v>0.03253266170285363</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -899,19 +899,19 @@
         <v>5407</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1885</v>
+        <v>1860</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11780</v>
+        <v>10671</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01004852339884267</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003503646728951749</v>
+        <v>0.003457037382931313</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02189122778465645</v>
+        <v>0.01983122133973077</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -920,19 +920,19 @@
         <v>12144</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6360</v>
+        <v>6506</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21482</v>
+        <v>20722</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01195350911814167</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006260509198513122</v>
+        <v>0.006404235893523976</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02114539839349523</v>
+        <v>0.02039702086414915</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>32399</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23008</v>
+        <v>21819</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46761</v>
+        <v>45433</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06780255715934712</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04814979079322453</v>
+        <v>0.04566202499750747</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0978606627461524</v>
+        <v>0.09508101946091428</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -970,19 +970,19 @@
         <v>27840</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19492</v>
+        <v>18754</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39099</v>
+        <v>38398</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05173729787873504</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03622388378429655</v>
+        <v>0.03485243413008577</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07266155573203648</v>
+        <v>0.07135788408389278</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -991,19 +991,19 @@
         <v>60239</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46115</v>
+        <v>46016</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75534</v>
+        <v>75860</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05929342585348912</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04539132144373027</v>
+        <v>0.04529416121128486</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07434867608447207</v>
+        <v>0.07467013422086546</v>
       </c>
     </row>
     <row r="8">
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8471</v>
+        <v>8537</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001899540382318729</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01053253868297781</v>
+        <v>0.01061507945743368</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7691</v>
+        <v>7660</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001000855733202096</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.005038864682880668</v>
+        <v>0.00501823747357472</v>
       </c>
     </row>
     <row r="10">
@@ -1158,19 +1158,19 @@
         <v>658428</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>640802</v>
+        <v>643464</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>672233</v>
+        <v>672074</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9117888931657732</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8873804370734651</v>
+        <v>0.8910666731016618</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9309052127180808</v>
+        <v>0.9306851149260392</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>693</v>
@@ -1179,19 +1179,19 @@
         <v>736169</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>719548</v>
+        <v>717515</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>750650</v>
+        <v>751102</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9153763677484279</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8947083556000976</v>
+        <v>0.8921802481023272</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9333822617142277</v>
+        <v>0.9339439020108075</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1300</v>
@@ -1200,19 +1200,19 @@
         <v>1394598</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1371172</v>
+        <v>1370981</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1416783</v>
+        <v>1416043</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9136791106821726</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8983313892247435</v>
+        <v>0.8982066609699001</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9282137005297536</v>
+        <v>0.9277290856452055</v>
       </c>
     </row>
     <row r="11">
@@ -1229,19 +1229,19 @@
         <v>15371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9136</v>
+        <v>8786</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23909</v>
+        <v>24424</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02128569076014276</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0126511822329867</v>
+        <v>0.01216669769904259</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03310868036017266</v>
+        <v>0.03382179919374325</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -1250,19 +1250,19 @@
         <v>13478</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7303</v>
+        <v>7209</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22481</v>
+        <v>22908</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01675950231395181</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009081382763162497</v>
+        <v>0.008963805494189443</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02795347613420897</v>
+        <v>0.02848445562799289</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -1271,19 +1271,19 @@
         <v>28849</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19753</v>
+        <v>19113</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42716</v>
+        <v>41108</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01890087088577213</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01294154736144786</v>
+        <v>0.01252176703548084</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02798551120993524</v>
+        <v>0.02693198027673662</v>
       </c>
     </row>
     <row r="12">
@@ -1300,19 +1300,19 @@
         <v>48329</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35152</v>
+        <v>35812</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>63568</v>
+        <v>62383</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06692541607408409</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04867869349810715</v>
+        <v>0.04959213158054219</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08802845097728393</v>
+        <v>0.08638710372968519</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>50</v>
@@ -1321,19 +1321,19 @@
         <v>53050</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>38659</v>
+        <v>39427</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>68726</v>
+        <v>68205</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06596458955530153</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04807025811960659</v>
+        <v>0.04902532092693489</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08545630748317909</v>
+        <v>0.08480822478205283</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>96</v>
@@ -1342,19 +1342,19 @@
         <v>101379</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>80621</v>
+        <v>83215</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>123020</v>
+        <v>123044</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06641916269885324</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05281902663050161</v>
+        <v>0.05451913096983997</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08059731684229357</v>
+        <v>0.08061279113985412</v>
       </c>
     </row>
     <row r="13">
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6409</v>
+        <v>5399</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001836491411137821</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01096328957502068</v>
+        <v>0.00923533934461958</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5379</v>
+        <v>5407</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0009503684399773598</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.00476149093531923</v>
+        <v>0.004786270725267604</v>
       </c>
     </row>
     <row r="15">
@@ -1509,19 +1509,19 @@
         <v>487240</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>470524</v>
+        <v>470904</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>500690</v>
+        <v>501302</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8938726781977583</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8632057513018025</v>
+        <v>0.8639033891918059</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9185479129071282</v>
+        <v>0.9196698356804898</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>540</v>
@@ -1530,19 +1530,19 @@
         <v>530112</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>515965</v>
+        <v>514897</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>543003</v>
+        <v>541905</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.9067801343982315</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8825820229145473</v>
+        <v>0.8807541674518156</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9288314602597846</v>
+        <v>0.9269524611100093</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1003</v>
@@ -1551,19 +1551,19 @@
         <v>1017352</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>995825</v>
+        <v>997730</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1037213</v>
+        <v>1036806</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.9005521752751335</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8814970724014077</v>
+        <v>0.8831825556112189</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9181326616274916</v>
+        <v>0.9177723709055798</v>
       </c>
     </row>
     <row r="16">
@@ -1580,19 +1580,19 @@
         <v>9955</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4513</v>
+        <v>4536</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19193</v>
+        <v>19012</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01826314076899449</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00827948469641453</v>
+        <v>0.008321430694987048</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03521103057616734</v>
+        <v>0.0348795845051138</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1601,19 +1601,19 @@
         <v>15089</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8781</v>
+        <v>8824</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23815</v>
+        <v>24954</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.025811122813532</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01502083429005818</v>
+        <v>0.01509334701698835</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04073688340625788</v>
+        <v>0.04268564501358665</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -1622,19 +1622,19 @@
         <v>25044</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15702</v>
+        <v>16754</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37331</v>
+        <v>37120</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02216915627069503</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01389900649604542</v>
+        <v>0.01483077355235645</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03304532706954256</v>
+        <v>0.03285820234379996</v>
       </c>
     </row>
     <row r="17">
@@ -1651,19 +1651,19 @@
         <v>47894</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36137</v>
+        <v>33918</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63930</v>
+        <v>63230</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08786418103324725</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06629487880775209</v>
+        <v>0.0622244383025489</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1172841761590635</v>
+        <v>0.115999144798791</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -1672,19 +1672,19 @@
         <v>38334</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28244</v>
+        <v>28290</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51203</v>
+        <v>52649</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06557225137709868</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04831305900954416</v>
+        <v>0.04839217267049847</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08758457177181853</v>
+        <v>0.09005927544545544</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>83</v>
@@ -1693,19 +1693,19 @@
         <v>86228</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>69436</v>
+        <v>70121</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>106050</v>
+        <v>104192</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07632830001419409</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06146387203685463</v>
+        <v>0.06207053534743398</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0938744037426419</v>
+        <v>0.09223039091386954</v>
       </c>
     </row>
     <row r="18">
@@ -1797,19 +1797,19 @@
         <v>2635</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>867</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7104</v>
+        <v>7859</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003700653945519341</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001218152682385364</v>
+        <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.009976873866305089</v>
+        <v>0.01103736596310715</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7940</v>
+        <v>8175</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002754617720169468</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.009754778372574664</v>
+        <v>0.01004360464186698</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1839,19 +1839,19 @@
         <v>4877</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1766</v>
+        <v>1749</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10485</v>
+        <v>11392</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00319602896238581</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001157255505190096</v>
+        <v>0.001146322835853666</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.00687070306668423</v>
+        <v>0.007465026065021503</v>
       </c>
     </row>
     <row r="20">
@@ -1868,19 +1868,19 @@
         <v>637586</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>621146</v>
+        <v>621807</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>651572</v>
+        <v>653098</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8954481251420487</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8723590118923681</v>
+        <v>0.87328732091334</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9150901964892217</v>
+        <v>0.9172344591153737</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>704</v>
@@ -1889,19 +1889,19 @@
         <v>731479</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>714148</v>
+        <v>712493</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>749364</v>
+        <v>747302</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8986247819430065</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8773337452788074</v>
+        <v>0.875300933692549</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9205962983839603</v>
+        <v>0.9180632156329289</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1380</v>
@@ -1910,19 +1910,19 @@
         <v>1369065</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1343619</v>
+        <v>1344455</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1390267</v>
+        <v>1390012</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8971425849752455</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8804680679368695</v>
+        <v>0.8810156724856471</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9110366086441349</v>
+        <v>0.9108693265895303</v>
       </c>
     </row>
     <row r="21">
@@ -1939,19 +1939,19 @@
         <v>23812</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15814</v>
+        <v>16345</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>35535</v>
+        <v>37034</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0334427499094852</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02220947735087156</v>
+        <v>0.02295589530565927</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04990612553403046</v>
+        <v>0.05201184479748205</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -1960,19 +1960,19 @@
         <v>15713</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8614</v>
+        <v>9240</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25164</v>
+        <v>26166</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01930408146718115</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01058270777434491</v>
+        <v>0.01135154705926937</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03091469476554636</v>
+        <v>0.0321444931027049</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>38</v>
@@ -1981,19 +1981,19 @@
         <v>39526</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>27756</v>
+        <v>27967</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>52111</v>
+        <v>53570</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02590104576217348</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01818810195081892</v>
+        <v>0.01832649431621639</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03414835293932283</v>
+        <v>0.03510428758616888</v>
       </c>
     </row>
     <row r="22">
@@ -2010,19 +2010,19 @@
         <v>47997</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36458</v>
+        <v>36361</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>61425</v>
+        <v>61838</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06740847100294665</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05120314082608427</v>
+        <v>0.05106677502351126</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0862680590078512</v>
+        <v>0.08684718604436931</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>61</v>
@@ -2031,19 +2031,19 @@
         <v>64563</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>49679</v>
+        <v>50029</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>80984</v>
+        <v>82025</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07931651886964287</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06103055370858732</v>
+        <v>0.06146038298595992</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09948913893826408</v>
+        <v>0.1007681155010994</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>114</v>
@@ -2052,19 +2052,19 @@
         <v>112560</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>93657</v>
+        <v>94538</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>134805</v>
+        <v>135433</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07376034030019529</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06137314559007642</v>
+        <v>0.06195053102271095</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08833744071201173</v>
+        <v>0.08874892582703518</v>
       </c>
     </row>
     <row r="23">
@@ -2156,19 +2156,19 @@
         <v>2635</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7836</v>
+        <v>7879</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001072399745460197</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.000352873296110889</v>
+        <v>0.0003540539245578476</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.003188954993628127</v>
+        <v>0.003206727287572992</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -2177,19 +2177,19 @@
         <v>6796</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2130</v>
+        <v>2428</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14023</v>
+        <v>14933</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.002479488326358917</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0007770843008509324</v>
+        <v>0.00088568602589808</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.005116034289071539</v>
+        <v>0.005448081171732487</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -2198,19 +2198,19 @@
         <v>9431</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4647</v>
+        <v>4776</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>17588</v>
+        <v>18140</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001814363146576517</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0008940175927872087</v>
+        <v>0.0009188427016454306</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.003383573619569023</v>
+        <v>0.003489868164980896</v>
       </c>
     </row>
     <row r="25">
@@ -2227,19 +2227,19 @@
         <v>2221956</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2191134</v>
+        <v>2187643</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2249120</v>
+        <v>2248414</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9043060430012227</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8917620579419266</v>
+        <v>0.8903410989718291</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9153616284585351</v>
+        <v>0.9150739513123993</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2447</v>
@@ -2248,19 +2248,19 @@
         <v>2500664</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2469626</v>
+        <v>2468762</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2529443</v>
+        <v>2530431</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9123392065496956</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.901015269264122</v>
+        <v>0.9007001952954283</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9228386278390514</v>
+        <v>0.9231992664824866</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4627</v>
@@ -2269,19 +2269,19 @@
         <v>4722620</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4681638</v>
+        <v>4675509</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4763967</v>
+        <v>4763300</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9085419620677692</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9006578229431329</v>
+        <v>0.899478724723315</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9164962040139774</v>
+        <v>0.916367924996874</v>
       </c>
     </row>
     <row r="26">
@@ -2298,19 +2298,19 @@
         <v>55875</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>41743</v>
+        <v>42692</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>71831</v>
+        <v>71276</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0227404425092456</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01698889761415897</v>
+        <v>0.01737503496148966</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02923407359926145</v>
+        <v>0.02900841039081318</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>47</v>
@@ -2319,19 +2319,19 @@
         <v>49688</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>36849</v>
+        <v>37138</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>66000</v>
+        <v>66586</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01812828168666321</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01344384042809717</v>
+        <v>0.01354920616960035</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02407945747517348</v>
+        <v>0.02429331246279512</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>101</v>
@@ -2340,19 +2340,19 @@
         <v>105564</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>85501</v>
+        <v>86807</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>127338</v>
+        <v>124925</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02030843177667823</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01644879092950126</v>
+        <v>0.01670005178609766</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02449741058928227</v>
+        <v>0.02403317966338461</v>
       </c>
     </row>
     <row r="27">
@@ -2369,19 +2369,19 @@
         <v>176618</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>152634</v>
+        <v>152715</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>204780</v>
+        <v>208225</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07188111474407147</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06212011698538113</v>
+        <v>0.06215307489897698</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08334249177166811</v>
+        <v>0.08474476885192228</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>179</v>
@@ -2390,19 +2390,19 @@
         <v>183788</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>156274</v>
+        <v>159756</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>209062</v>
+        <v>211781</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.06705302343728228</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05701489595778381</v>
+        <v>0.05828523405538037</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07627377535421213</v>
+        <v>0.07726581949087856</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>351</v>
@@ -2411,19 +2411,19 @@
         <v>360406</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>323709</v>
+        <v>323705</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>399006</v>
+        <v>400081</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06933524300897614</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06227542859505823</v>
+        <v>0.06227469737204543</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0767611010805969</v>
+        <v>0.0769679161833073</v>
       </c>
     </row>
     <row r="28">
@@ -2802,19 +2802,19 @@
         <v>498788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>476189</v>
+        <v>476899</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>516352</v>
+        <v>516546</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8256787395119813</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7882689812173497</v>
+        <v>0.7894431099683908</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8547532800318862</v>
+        <v>0.855074700157348</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>509</v>
@@ -2823,19 +2823,19 @@
         <v>548006</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>530707</v>
+        <v>528911</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>565529</v>
+        <v>565028</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8633677241724538</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8361129130213965</v>
+        <v>0.8332838493846529</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8909748772374834</v>
+        <v>0.8901841957892455</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>991</v>
@@ -2844,19 +2844,19 @@
         <v>1046795</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1019274</v>
+        <v>1021122</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1070940</v>
+        <v>1072658</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8449892467308828</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8227741530348889</v>
+        <v>0.8242662287466165</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8644797045236476</v>
+        <v>0.8658667235121574</v>
       </c>
     </row>
     <row r="6">
@@ -2873,19 +2873,19 @@
         <v>12657</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7210</v>
+        <v>6491</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22887</v>
+        <v>23040</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02095157841888079</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01193602942234769</v>
+        <v>0.01074556554791233</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03788627023131749</v>
+        <v>0.03813931686179135</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -2894,19 +2894,19 @@
         <v>10402</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5106</v>
+        <v>5190</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18313</v>
+        <v>19203</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.016387537043613</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008043701819988565</v>
+        <v>0.008176071722191645</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02885189018073522</v>
+        <v>0.03025317091484147</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -2915,19 +2915,19 @@
         <v>23058</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14706</v>
+        <v>14801</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35489</v>
+        <v>35969</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01861312449876479</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01187087042445507</v>
+        <v>0.01194799750428217</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02864703667248163</v>
+        <v>0.02903449645598016</v>
       </c>
     </row>
     <row r="7">
@@ -2944,19 +2944,19 @@
         <v>92650</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76350</v>
+        <v>76115</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114103</v>
+        <v>113853</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1533696820691378</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1263875170354318</v>
+        <v>0.1259979324785484</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1888829186383565</v>
+        <v>0.1884688384136645</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -2965,19 +2965,19 @@
         <v>76323</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59049</v>
+        <v>61406</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92429</v>
+        <v>95720</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1202447387839332</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09303071166785866</v>
+        <v>0.0967432997469571</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1456188798123299</v>
+        <v>0.1508036313523409</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>158</v>
@@ -2986,19 +2986,19 @@
         <v>168973</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>147275</v>
+        <v>144915</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>195150</v>
+        <v>192556</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1363976287703524</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1188826831923926</v>
+        <v>0.1169780861779568</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1575278277030682</v>
+        <v>0.1554343858617333</v>
       </c>
     </row>
     <row r="8">
@@ -3137,19 +3137,19 @@
         <v>714358</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>690561</v>
+        <v>688878</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>736951</v>
+        <v>737270</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8261120137578583</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7985920147458297</v>
+        <v>0.796646350613019</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8522389597152126</v>
+        <v>0.8526086804486316</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>712</v>
@@ -3158,19 +3158,19 @@
         <v>778619</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>754953</v>
+        <v>756371</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>798053</v>
+        <v>799033</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8642252643661191</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8379568730206468</v>
+        <v>0.8395311382107791</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8857949457269094</v>
+        <v>0.8868830253999541</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1375</v>
@@ -3179,19 +3179,19 @@
         <v>1492977</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1456174</v>
+        <v>1458602</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1520456</v>
+        <v>1524857</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8455595803038349</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8247161337579059</v>
+        <v>0.8260912705009846</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8611228330774808</v>
+        <v>0.8636154000331171</v>
       </c>
     </row>
     <row r="11">
@@ -3208,19 +3208,19 @@
         <v>23724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14224</v>
+        <v>14294</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35986</v>
+        <v>37029</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02743498300208969</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01644935091451005</v>
+        <v>0.01652979596999186</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04161607607950168</v>
+        <v>0.04282237815088639</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -3229,19 +3229,19 @@
         <v>13709</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7424</v>
+        <v>7416</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23250</v>
+        <v>23665</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01521579057588581</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00824000581514926</v>
+        <v>0.008231199621514829</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02580632550542935</v>
+        <v>0.02626655723690538</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -3250,19 +3250,19 @@
         <v>37432</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26458</v>
+        <v>27183</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>54006</v>
+        <v>55203</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0212000501623495</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01498496245439788</v>
+        <v>0.01539515493314719</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03058686301093844</v>
+        <v>0.03126490234057513</v>
       </c>
     </row>
     <row r="12">
@@ -3279,19 +3279,19 @@
         <v>126641</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>106611</v>
+        <v>106616</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>148213</v>
+        <v>152339</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.146453003240052</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1232895531212928</v>
+        <v>0.1232946561088412</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1713996920703218</v>
+        <v>0.1761708214241416</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>99</v>
@@ -3300,19 +3300,19 @@
         <v>108617</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>89824</v>
+        <v>90187</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>130579</v>
+        <v>131812</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1205589450579951</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09970028819957497</v>
+        <v>0.1001022595989934</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1449357827397243</v>
+        <v>0.1463044422191958</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>213</v>
@@ -3321,19 +3321,19 @@
         <v>235258</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>209140</v>
+        <v>206710</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>270421</v>
+        <v>264987</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1332403695338156</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.118448017469127</v>
+        <v>0.1170720299179316</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1531550162690281</v>
+        <v>0.150077803612593</v>
       </c>
     </row>
     <row r="13">
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7262</v>
+        <v>7118</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003622085191111464</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01143488535813021</v>
+        <v>0.01120799583754191</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7006</v>
+        <v>8465</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001749883487781469</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005329951437210531</v>
+        <v>0.006439631379294761</v>
       </c>
     </row>
     <row r="15">
@@ -3488,19 +3488,19 @@
         <v>511583</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>490467</v>
+        <v>490091</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>531834</v>
+        <v>532628</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8055841393801034</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7723334200402999</v>
+        <v>0.7717416737136684</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.83747372954374</v>
+        <v>0.8387233796374872</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>536</v>
@@ -3509,19 +3509,19 @@
         <v>589088</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>568631</v>
+        <v>570695</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>607291</v>
+        <v>606386</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8670249436833162</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8369155768548426</v>
+        <v>0.8399539816918505</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8938161107813986</v>
+        <v>0.8924845199678886</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1006</v>
@@ -3530,19 +3530,19 @@
         <v>1100671</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1069575</v>
+        <v>1074569</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1127211</v>
+        <v>1128880</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.83734197289344</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8136856843467475</v>
+        <v>0.8174844588736739</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8575324713543963</v>
+        <v>0.8588019651306408</v>
       </c>
     </row>
     <row r="16">
@@ -3559,19 +3559,19 @@
         <v>29564</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19624</v>
+        <v>18775</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45198</v>
+        <v>43453</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04655476925173622</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03090158503089141</v>
+        <v>0.02956473354438085</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07117207944763294</v>
+        <v>0.06842469114413521</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -3580,19 +3580,19 @@
         <v>22282</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12357</v>
+        <v>13262</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35582</v>
+        <v>35144</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03279506504724959</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01818664024395999</v>
+        <v>0.01951957630799044</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05236928632904396</v>
+        <v>0.05172466285730541</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -3601,19 +3601,19 @@
         <v>51847</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38213</v>
+        <v>37356</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71409</v>
+        <v>68640</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03944258378680743</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02907095806953235</v>
+        <v>0.02841859973735334</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05432448380558118</v>
+        <v>0.05221856063333231</v>
       </c>
     </row>
     <row r="17">
@@ -3630,19 +3630,19 @@
         <v>91598</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>75388</v>
+        <v>73992</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>112296</v>
+        <v>110681</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1442390061770489</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1187119339290849</v>
+        <v>0.1165139544978928</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1768317423525214</v>
+        <v>0.1742883325168075</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -3651,19 +3651,19 @@
         <v>68066</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53290</v>
+        <v>53095</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>84898</v>
+        <v>84693</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1001799912694342</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0784331234571496</v>
+        <v>0.07814544285865388</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1249532885006727</v>
+        <v>0.1246512799595988</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>148</v>
@@ -3672,19 +3672,19 @@
         <v>159664</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>137529</v>
+        <v>135947</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>186653</v>
+        <v>183437</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1214655598319711</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1046261450738196</v>
+        <v>0.1034224938039812</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1419973265476946</v>
+        <v>0.1395504696361432</v>
       </c>
     </row>
     <row r="18">
@@ -3823,19 +3823,19 @@
         <v>688732</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>668819</v>
+        <v>667491</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>707545</v>
+        <v>705874</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8569979049236113</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8322193681853278</v>
+        <v>0.8305666320782014</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8804062905292021</v>
+        <v>0.8783274840935474</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>763</v>
@@ -3844,19 +3844,19 @@
         <v>801984</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>778707</v>
+        <v>779805</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>822810</v>
+        <v>821049</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8638629536556736</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8387891566360733</v>
+        <v>0.839971755408942</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8862958125972057</v>
+        <v>0.8843979418294688</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1425</v>
@@ -3865,19 +3865,19 @@
         <v>1490716</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1461494</v>
+        <v>1460370</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1519840</v>
+        <v>1516997</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8606775847070077</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8438060076343619</v>
+        <v>0.8431571707059796</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8774928212282205</v>
+        <v>0.8758513133384604</v>
       </c>
     </row>
     <row r="21">
@@ -3894,19 +3894,19 @@
         <v>31449</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21680</v>
+        <v>21791</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>44668</v>
+        <v>44952</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03913192785965234</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02697663225085643</v>
+        <v>0.02711462590887624</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05558126668767795</v>
+        <v>0.05593398987695439</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>32</v>
@@ -3915,19 +3915,19 @@
         <v>34530</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>23636</v>
+        <v>24300</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>48352</v>
+        <v>48484</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03719376878150035</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02545993108718239</v>
+        <v>0.02617450842177704</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0520824941173687</v>
+        <v>0.05222466610998951</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>61</v>
@@ -3936,19 +3936,19 @@
         <v>65978</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>49635</v>
+        <v>49493</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>83394</v>
+        <v>83262</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03809307073638472</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0286574240649692</v>
+        <v>0.02857502753101851</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04814847780378743</v>
+        <v>0.04807185301921639</v>
       </c>
     </row>
     <row r="22">
@@ -3965,19 +3965,19 @@
         <v>83476</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>66909</v>
+        <v>67478</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>101500</v>
+        <v>102847</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1038701672167364</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08325567512533263</v>
+        <v>0.08396418389086026</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1262976371089288</v>
+        <v>0.1279736769802114</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>87</v>
@@ -3986,19 +3986,19 @@
         <v>91856</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>73694</v>
+        <v>75411</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>111670</v>
+        <v>111695</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09894327756282607</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07937945206656039</v>
+        <v>0.08122905645296492</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1202866049844149</v>
+        <v>0.1203128563965238</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>168</v>
@@ -4007,19 +4007,19 @@
         <v>175332</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>150353</v>
+        <v>152348</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>202522</v>
+        <v>201655</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1012293445566075</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08680735946751265</v>
+        <v>0.08795960011639636</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1169275238698405</v>
+        <v>0.1164274817342114</v>
       </c>
     </row>
     <row r="23">
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8473</v>
+        <v>7853</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0007911174264868012</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.00291428856181574</v>
+        <v>0.002700906773662856</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7880</v>
+        <v>7776</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0003801337771334893</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.001302311885099186</v>
+        <v>0.001285008656701486</v>
       </c>
     </row>
     <row r="25">
@@ -4174,19 +4174,19 @@
         <v>2413461</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2370553</v>
+        <v>2367440</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2455331</v>
+        <v>2453716</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8300754519090485</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8153179547117188</v>
+        <v>0.8142470688756365</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8444759212293198</v>
+        <v>0.8439205841079254</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2520</v>
@@ -4195,19 +4195,19 @@
         <v>2717697</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2676551</v>
+        <v>2678786</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2754775</v>
+        <v>2755728</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8645502345506777</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8514609649876584</v>
+        <v>0.8521717958835268</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.876345430107483</v>
+        <v>0.8766486158263601</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4797</v>
@@ -4216,19 +4216,19 @@
         <v>5131158</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5071652</v>
+        <v>5070688</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5186134</v>
+        <v>5185927</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8479850207117974</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8381508915980814</v>
+        <v>0.8379915249096342</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8570704523925454</v>
+        <v>0.8570361684121811</v>
       </c>
     </row>
     <row r="26">
@@ -4245,19 +4245,19 @@
         <v>97393</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>77958</v>
+        <v>77920</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>120635</v>
+        <v>120520</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03349708203040299</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0268124558156302</v>
+        <v>0.02679931584645081</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04149084177997497</v>
+        <v>0.0414509822226426</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>70</v>
@@ -4266,19 +4266,19 @@
         <v>80922</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>65001</v>
+        <v>60480</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>103588</v>
+        <v>102658</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02574278967953221</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02067790218671582</v>
+        <v>0.01923995652957128</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03295324257673624</v>
+        <v>0.03265757630623586</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>154</v>
@@ -4287,19 +4287,19 @@
         <v>178315</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>152639</v>
+        <v>151997</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>209314</v>
+        <v>209980</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02946874532359362</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02522541662159056</v>
+        <v>0.02511923819665365</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03459161030362384</v>
+        <v>0.03470167275567947</v>
       </c>
     </row>
     <row r="27">
@@ -4316,19 +4316,19 @@
         <v>394365</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>355894</v>
+        <v>356980</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>432958</v>
+        <v>436061</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1356363486340617</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1224048164998043</v>
+        <v>0.1227780857337424</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.148909875298396</v>
+        <v>0.1499770252856863</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>321</v>
@@ -4337,19 +4337,19 @@
         <v>344862</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>308144</v>
+        <v>310654</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>381180</v>
+        <v>380251</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1097069757697901</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09802637778800402</v>
+        <v>0.09882475242319412</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1212606276521584</v>
+        <v>0.1209648159383093</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>687</v>
@@ -4358,19 +4358,19 @@
         <v>739227</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>691047</v>
+        <v>687767</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>791007</v>
+        <v>793048</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1221661001874755</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1142036816159075</v>
+        <v>0.1136616961338078</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1307232764566861</v>
+        <v>0.1310605563686676</v>
       </c>
     </row>
     <row r="28">
@@ -4749,19 +4749,19 @@
         <v>466606</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>450750</v>
+        <v>451162</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>480224</v>
+        <v>480652</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.888784947454122</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8585838076037037</v>
+        <v>0.859367933649213</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9147252151928643</v>
+        <v>0.915540075657024</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>493</v>
@@ -4770,19 +4770,19 @@
         <v>493065</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>477632</v>
+        <v>478909</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>505546</v>
+        <v>504986</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9057651074096883</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8774142052644931</v>
+        <v>0.8797596561676642</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9286920622750549</v>
+        <v>0.9276640503455946</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>944</v>
@@ -4791,19 +4791,19 @@
         <v>959671</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>938334</v>
+        <v>938859</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>977341</v>
+        <v>979446</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8974288124444884</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8774758450513758</v>
+        <v>0.8779667747005609</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9139530683348992</v>
+        <v>0.9159210778006132</v>
       </c>
     </row>
     <row r="6">
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9883</v>
+        <v>10050</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00481516017611992</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01882415576896217</v>
+        <v>0.01914255664672253</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -4841,19 +4841,19 @@
         <v>3247</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8745</v>
+        <v>9311</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005964109025519944</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001781240581340831</v>
+        <v>0.001799580561082473</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01606511154674148</v>
+        <v>0.01710449517431184</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -4862,19 +4862,19 @@
         <v>5775</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2054</v>
+        <v>2203</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13312</v>
+        <v>13400</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005400040339854478</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001920961169226803</v>
+        <v>0.002060382055888771</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0124483098383851</v>
+        <v>0.01253133384465514</v>
       </c>
     </row>
     <row r="7">
@@ -4891,19 +4891,19 @@
         <v>55859</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42539</v>
+        <v>41948</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71110</v>
+        <v>69853</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1063998923697581</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08102769925250511</v>
+        <v>0.07990291516727176</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1354486092323927</v>
+        <v>0.1330542912684034</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -4912,19 +4912,19 @@
         <v>48051</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35502</v>
+        <v>36554</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62442</v>
+        <v>62602</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08827078356479175</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06521732064870064</v>
+        <v>0.06715065070750177</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1147063855060473</v>
+        <v>0.1150006693098609</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>102</v>
@@ -4933,19 +4933,19 @@
         <v>103911</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>86308</v>
+        <v>84165</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>125662</v>
+        <v>124036</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09717114721565714</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08070985363907807</v>
+        <v>0.07870645188270285</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1175121929483281</v>
+        <v>0.1159911122266095</v>
       </c>
     </row>
     <row r="8">
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7183</v>
+        <v>7193</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002519807547496112</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.008798953111925707</v>
+        <v>0.008811576293713546</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5566</v>
+        <v>5542</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001277194230765722</v>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.006424419440424801</v>
+        <v>0.006396525035981804</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -5079,19 +5079,19 @@
         <v>3164</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8417</v>
+        <v>8510</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001880029303562989</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0006053571500814308</v>
+        <v>0.000606281093457806</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.005002255866814537</v>
+        <v>0.005057478877013008</v>
       </c>
     </row>
     <row r="10">
@@ -5108,19 +5108,19 @@
         <v>727622</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>707020</v>
+        <v>708526</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>743741</v>
+        <v>745986</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8913157973709563</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8660786278280067</v>
+        <v>0.8679242562323281</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9110604440700376</v>
+        <v>0.9138104900906815</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>730</v>
@@ -5129,19 +5129,19 @@
         <v>774265</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>755574</v>
+        <v>753032</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>794082</v>
+        <v>791073</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8936850594319448</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8721114570322216</v>
+        <v>0.8691778858005479</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9165593802436139</v>
+        <v>0.9130857827854807</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1404</v>
@@ -5150,19 +5150,19 @@
         <v>1501887</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1472001</v>
+        <v>1474325</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1525459</v>
+        <v>1525220</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8925356477462807</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8747750338055079</v>
+        <v>0.8761563812639303</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9065439518138786</v>
+        <v>0.9064018310985943</v>
       </c>
     </row>
     <row r="11">
@@ -5179,19 +5179,19 @@
         <v>19836</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11605</v>
+        <v>11379</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31951</v>
+        <v>30944</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02429878286197544</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01421628436473333</v>
+        <v>0.01393919623746769</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03913910463416483</v>
+        <v>0.03790489335225651</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -5200,19 +5200,19 @@
         <v>16916</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10248</v>
+        <v>9967</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26217</v>
+        <v>26755</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01952483807319518</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01182903232151336</v>
+        <v>0.01150408173100286</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03026098320012471</v>
+        <v>0.0308817780569421</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>34</v>
@@ -5221,19 +5221,19 @@
         <v>36752</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25971</v>
+        <v>25594</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>51005</v>
+        <v>50591</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02184084524576188</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01543407454070717</v>
+        <v>0.01521011836795861</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03031122889772025</v>
+        <v>0.03006480359460444</v>
       </c>
     </row>
     <row r="12">
@@ -5250,19 +5250,19 @@
         <v>66831</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>52429</v>
+        <v>50973</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>85468</v>
+        <v>83605</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08186561221957209</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06422341324533011</v>
+        <v>0.06244022184655526</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1046954141275801</v>
+        <v>0.102413711130305</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>70</v>
@@ -5271,19 +5271,19 @@
         <v>74086</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>56248</v>
+        <v>59383</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>90212</v>
+        <v>94984</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0855129082640943</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06492378343537811</v>
+        <v>0.06854244082297416</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.104125690952271</v>
+        <v>0.1096339688595365</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>131</v>
@@ -5292,19 +5292,19 @@
         <v>140917</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>117410</v>
+        <v>118577</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>167716</v>
+        <v>165484</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08374347770439446</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06977406741976835</v>
+        <v>0.07046770988010236</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0996697945212635</v>
+        <v>0.09834295693173387</v>
       </c>
     </row>
     <row r="13">
@@ -5443,19 +5443,19 @@
         <v>496011</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>481391</v>
+        <v>481102</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>509477</v>
+        <v>509597</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.9029662715450745</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8763506740530798</v>
+        <v>0.8758244316355872</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9274810785564724</v>
+        <v>0.9276984424237051</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>493</v>
@@ -5464,19 +5464,19 @@
         <v>516845</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>499936</v>
+        <v>500670</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>530803</v>
+        <v>531672</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8934732171332519</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8642425840170254</v>
+        <v>0.8655123051651997</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9176023665918898</v>
+        <v>0.9191049349606226</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>945</v>
@@ -5485,19 +5485,19 @@
         <v>1012856</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>991329</v>
+        <v>990418</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1033737</v>
+        <v>1032414</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.8980970455791972</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8790093767076314</v>
+        <v>0.8782014088807496</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.916612096569366</v>
+        <v>0.9154395716900979</v>
       </c>
     </row>
     <row r="16">
@@ -5514,19 +5514,19 @@
         <v>5255</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2098</v>
+        <v>2072</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11634</v>
+        <v>11652</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009565890339305036</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003818677494893545</v>
+        <v>0.003771338219173249</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02117881850912921</v>
+        <v>0.02121266883669565</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -5535,19 +5535,19 @@
         <v>18989</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11122</v>
+        <v>11854</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28313</v>
+        <v>29532</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03282695920646259</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01922676073500669</v>
+        <v>0.0204914099891807</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0489451936238585</v>
+        <v>0.05105281200434693</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -5556,19 +5556,19 @@
         <v>24244</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15761</v>
+        <v>16176</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35735</v>
+        <v>36650</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0214970766159754</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01397536748514348</v>
+        <v>0.01434328476570895</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03168645283598273</v>
+        <v>0.03249708900244589</v>
       </c>
     </row>
     <row r="17">
@@ -5585,19 +5585,19 @@
         <v>48047</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35683</v>
+        <v>35512</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62681</v>
+        <v>63659</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08746783811562045</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06496020605378248</v>
+        <v>0.06464836109431878</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1141075584610548</v>
+        <v>0.115889243112895</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -5606,19 +5606,19 @@
         <v>42633</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31755</v>
+        <v>29368</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58648</v>
+        <v>56130</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07369982366028549</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05489447350273343</v>
+        <v>0.05076946615115874</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1013854383855092</v>
+        <v>0.0970325805155537</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>83</v>
@@ -5627,19 +5627,19 @@
         <v>90680</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>73515</v>
+        <v>73105</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>110851</v>
+        <v>110243</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08040587780482734</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06518582043301945</v>
+        <v>0.0648219286809332</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09829113890436761</v>
+        <v>0.09775205576861808</v>
       </c>
     </row>
     <row r="18">
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5015</v>
+        <v>4586</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001285246751502611</v>
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.006499028098183585</v>
+        <v>0.00594280480085966</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4943</v>
+        <v>5555</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0006016436572346054</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002998362434719487</v>
+        <v>0.003369759615422201</v>
       </c>
     </row>
     <row r="20">
@@ -5794,19 +5794,19 @@
         <v>671005</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>651382</v>
+        <v>652675</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>688556</v>
+        <v>688486</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8694995274519947</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8440717189596474</v>
+        <v>0.845747044474032</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8922418843461185</v>
+        <v>0.8921511680140962</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>687</v>
@@ -5815,19 +5815,19 @@
         <v>738309</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>715297</v>
+        <v>713469</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>761054</v>
+        <v>759224</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8420097604750674</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8157654918586184</v>
+        <v>0.8136808921871935</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8679503487479401</v>
+        <v>0.8658625108735009</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1354</v>
@@ -5836,19 +5836,19 @@
         <v>1409314</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1377523</v>
+        <v>1380249</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1438678</v>
+        <v>1438282</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8548781407461628</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8355942316976154</v>
+        <v>0.8372476431737393</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8726902671242239</v>
+        <v>0.8724499438563218</v>
       </c>
     </row>
     <row r="21">
@@ -5865,19 +5865,19 @@
         <v>24384</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15266</v>
+        <v>16049</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>34714</v>
+        <v>37143</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03159687195284989</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01978224620576502</v>
+        <v>0.02079662432990592</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04498234690843963</v>
+        <v>0.0481299051131189</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>43</v>
@@ -5886,19 +5886,19 @@
         <v>49241</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>36799</v>
+        <v>36599</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>63689</v>
+        <v>65743</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05615695314658815</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04196762670610747</v>
+        <v>0.04173927446542092</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07263462618503196</v>
+        <v>0.07497694364650297</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>66</v>
@@ -5907,19 +5907,19 @@
         <v>73624</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>56755</v>
+        <v>59253</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>91009</v>
+        <v>93896</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04466000358876659</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03442737025382796</v>
+        <v>0.03594266706870575</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05520505212166811</v>
+        <v>0.05695625491283297</v>
       </c>
     </row>
     <row r="22">
@@ -5936,19 +5936,19 @@
         <v>75333</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60302</v>
+        <v>60650</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>91587</v>
+        <v>92278</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09761835384365289</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07814027761564375</v>
+        <v>0.07859079107962955</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1186804155321466</v>
+        <v>0.1195750503368165</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>83</v>
@@ -5957,19 +5957,19 @@
         <v>89292</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>72637</v>
+        <v>71347</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>108437</v>
+        <v>109653</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1018332863783444</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08283951368145395</v>
+        <v>0.08136773015835135</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1236681163019934</v>
+        <v>0.1250549918608564</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>159</v>
@@ -5978,19 +5978,19 @@
         <v>164625</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>139222</v>
+        <v>142007</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>192973</v>
+        <v>190195</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09986021200783606</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08445088612921214</v>
+        <v>0.08614058517940533</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1170560299093448</v>
+        <v>0.1153708854340133</v>
       </c>
     </row>
     <row r="23">
@@ -6082,19 +6082,19 @@
         <v>3049</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8207</v>
+        <v>9156</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001145175585165875</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0003715121155432717</v>
+        <v>0.0003725601246544075</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.003082566783373739</v>
+        <v>0.003439194474973649</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5548</v>
+        <v>5547</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0003860815470046949</v>
@@ -6115,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.001935913483988584</v>
+        <v>0.0019355251559518</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -6124,19 +6124,19 @@
         <v>4155</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1023</v>
+        <v>1036</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10062</v>
+        <v>9788</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0007516452626314263</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0001849929633643242</v>
+        <v>0.0001873592157219264</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.001819987798393782</v>
+        <v>0.00177054386329734</v>
       </c>
     </row>
     <row r="25">
@@ -6153,19 +6153,19 @@
         <v>2361244</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2328159</v>
+        <v>2326574</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2393810</v>
+        <v>2395429</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8868968565281335</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8744699177681656</v>
+        <v>0.8738746587513888</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8991286895298636</v>
+        <v>0.8997371113589987</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2403</v>
@@ -6174,19 +6174,19 @@
         <v>2522483</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2484320</v>
+        <v>2484254</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2557750</v>
+        <v>2556662</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8801271183873269</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8668114598415061</v>
+        <v>0.8667883953916248</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8924323091204766</v>
+        <v>0.8920526111647166</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4647</v>
@@ -6195,19 +6195,19 @@
         <v>4883727</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4832401</v>
+        <v>4829285</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4932727</v>
+        <v>4928809</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8833872818244791</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.874103200186394</v>
+        <v>0.8735395263411934</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8922505302309838</v>
+        <v>0.8915419251810831</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>52003</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>38516</v>
+        <v>37084</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>68476</v>
+        <v>68053</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01953245681585775</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01446672977744418</v>
+        <v>0.01392893044591041</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02572011394412571</v>
+        <v>0.02556109261291221</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>81</v>
@@ -6245,19 +6245,19 @@
         <v>88392</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>69757</v>
+        <v>69899</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>108297</v>
+        <v>109525</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03084128432952099</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02433903738277063</v>
+        <v>0.02438852907031301</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03778624287883812</v>
+        <v>0.03821468786256535</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>128</v>
@@ -6266,19 +6266,19 @@
         <v>140395</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>118466</v>
+        <v>117755</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>165786</v>
+        <v>166702</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0253951909636833</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02142856094649084</v>
+        <v>0.0212999513472064</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02998794887233685</v>
+        <v>0.03015378300855425</v>
       </c>
     </row>
     <row r="27">
@@ -6295,19 +6295,19 @@
         <v>246071</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>215228</v>
+        <v>215664</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>277505</v>
+        <v>276670</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.09242551107084278</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08084100795740454</v>
+        <v>0.08100476969824062</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1042326568399832</v>
+        <v>0.1039187505203479</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>241</v>
@@ -6316,19 +6316,19 @@
         <v>254062</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>224632</v>
+        <v>225350</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>288616</v>
+        <v>287352</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08864551573614735</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07837693332024043</v>
+        <v>0.07862753789490379</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1007018485901219</v>
+        <v>0.1002607077504595</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>475</v>
@@ -6337,19 +6337,19 @@
         <v>500132</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>456909</v>
+        <v>458163</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>547978</v>
+        <v>541824</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09046588194920614</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.08264752046429835</v>
+        <v>0.08287423002930101</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09912041149812739</v>
+        <v>0.09800713205229507</v>
       </c>
     </row>
     <row r="28">
@@ -6728,19 +6728,19 @@
         <v>597342</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>577647</v>
+        <v>578064</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>612298</v>
+        <v>611102</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9015814932404956</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8718547654014934</v>
+        <v>0.8724846889021964</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9241555194477608</v>
+        <v>0.9223498882444996</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1117</v>
@@ -6749,19 +6749,19 @@
         <v>661536</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>650734</v>
+        <v>649703</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>670606</v>
+        <v>670458</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9377118619908632</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9224007272198218</v>
+        <v>0.9209387809303373</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9505687100912852</v>
+        <v>0.9503592579849364</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1746</v>
@@ -6770,19 +6770,19 @@
         <v>1258878</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1236471</v>
+        <v>1237237</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1277236</v>
+        <v>1275429</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9202135849318548</v>
+        <v>0.9202135849318547</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9038342700804468</v>
+        <v>0.9043947784533996</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9336326649944052</v>
+        <v>0.9323122640188096</v>
       </c>
     </row>
     <row r="6">
@@ -6799,19 +6799,19 @@
         <v>2758</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7759</v>
+        <v>8940</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004163304418409787</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001139253613182158</v>
+        <v>0.00115686696275426</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01171042087934608</v>
+        <v>0.01349274436801011</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -6820,19 +6820,19 @@
         <v>5553</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2840</v>
+        <v>2693</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9480</v>
+        <v>9413</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.007870601240233499</v>
+        <v>0.007870601240233501</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004024945323392193</v>
+        <v>0.003817113617111861</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0134375448372318</v>
+        <v>0.0133423198573732</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -6841,19 +6841,19 @@
         <v>8311</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4397</v>
+        <v>4444</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14188</v>
+        <v>14564</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.006075122556457463</v>
+        <v>0.006075122556457464</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003214326496817719</v>
+        <v>0.003248756828865244</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01037077408829742</v>
+        <v>0.01064620310449683</v>
       </c>
     </row>
     <row r="7">
@@ -6870,19 +6870,19 @@
         <v>62449</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47217</v>
+        <v>48865</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82358</v>
+        <v>81994</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09425520234109462</v>
+        <v>0.09425520234109463</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07126596846240622</v>
+        <v>0.07375378183232405</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1243049536626379</v>
+        <v>0.1237547241113314</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -6891,19 +6891,19 @@
         <v>38390</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30041</v>
+        <v>29663</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48753</v>
+        <v>49106</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05441753676890324</v>
+        <v>0.05441753676890325</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04258210156338965</v>
+        <v>0.04204704796084993</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06910628277441937</v>
+        <v>0.06960681077321332</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>135</v>
@@ -6912,19 +6912,19 @@
         <v>100839</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83683</v>
+        <v>83660</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>123504</v>
+        <v>122489</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.07371129251168777</v>
+        <v>0.07371129251168779</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06117034933113927</v>
+        <v>0.06115394954359624</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09027862115034234</v>
+        <v>0.08953720158439478</v>
       </c>
     </row>
     <row r="8">
@@ -7063,19 +7063,19 @@
         <v>913194</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>890401</v>
+        <v>889887</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>932370</v>
+        <v>933056</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.898711749992901</v>
+        <v>0.8987117499929009</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8762799737405459</v>
+        <v>0.8757734719216898</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9175833606541994</v>
+        <v>0.9182582859586323</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1386</v>
@@ -7084,19 +7084,19 @@
         <v>980262</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>965031</v>
+        <v>964422</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>993476</v>
+        <v>993258</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9325585421446602</v>
+        <v>0.9325585421446603</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9180691600545698</v>
+        <v>0.9174892820703943</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9451297747634646</v>
+        <v>0.9449221019857846</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2221</v>
@@ -7105,19 +7105,19 @@
         <v>1893456</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1866268</v>
+        <v>1864620</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1918093</v>
+        <v>1917599</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9159219809532902</v>
+        <v>0.9159219809532901</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9027704578857796</v>
+        <v>0.9019729693175658</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9278397104081285</v>
+        <v>0.9276005384761662</v>
       </c>
     </row>
     <row r="11">
@@ -7134,19 +7134,19 @@
         <v>17676</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9573</v>
+        <v>9429</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31556</v>
+        <v>31413</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01739518465769664</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009421375941488102</v>
+        <v>0.009279826219380487</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03105508177973281</v>
+        <v>0.03091501084696627</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -7155,19 +7155,19 @@
         <v>8345</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4311</v>
+        <v>4451</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14535</v>
+        <v>14826</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.007939114181673545</v>
+        <v>0.007939114181673547</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00410119854852268</v>
+        <v>0.00423474708487977</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01382726221913393</v>
+        <v>0.01410489605590213</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -7176,19 +7176,19 @@
         <v>26021</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17070</v>
+        <v>17093</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>38215</v>
+        <v>40997</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01258701388215041</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008257109763212638</v>
+        <v>0.008268488800290458</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01848566037845284</v>
+        <v>0.01983167677003338</v>
       </c>
     </row>
     <row r="12">
@@ -7205,19 +7205,19 @@
         <v>85245</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>67507</v>
+        <v>66655</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>106030</v>
+        <v>106462</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.08389306534940247</v>
+        <v>0.08389306534940248</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06643596104860823</v>
+        <v>0.06559781184780959</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1043480202182905</v>
+        <v>0.1047736018722787</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>94</v>
@@ -7226,19 +7226,19 @@
         <v>62546</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>50034</v>
+        <v>48929</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>77815</v>
+        <v>76629</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05950234367366631</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04759914663070752</v>
+        <v>0.04654755603903066</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07402800852769251</v>
+        <v>0.07290037484416197</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>182</v>
@@ -7247,19 +7247,19 @@
         <v>147791</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>125245</v>
+        <v>126652</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>171431</v>
+        <v>174463</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07149100516455936</v>
+        <v>0.07149100516455933</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06058483092052205</v>
+        <v>0.06126557435121997</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08292648127632463</v>
+        <v>0.08439305326793373</v>
       </c>
     </row>
     <row r="13">
@@ -7398,19 +7398,19 @@
         <v>695401</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>671601</v>
+        <v>670542</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>713956</v>
+        <v>714784</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8993643268295972</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8685838077182032</v>
+        <v>0.8672143577385146</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9233609597818169</v>
+        <v>0.9244321089995904</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>960</v>
@@ -7419,19 +7419,19 @@
         <v>742682</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>726085</v>
+        <v>726523</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>755828</v>
+        <v>755966</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.927371859196226</v>
+        <v>0.9273718591962262</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.9066475225053582</v>
+        <v>0.9071946279531109</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9437873322115735</v>
+        <v>0.9439593059455427</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1554</v>
@@ -7440,19 +7440,19 @@
         <v>1438083</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1412089</v>
+        <v>1411086</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1461134</v>
+        <v>1462363</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.9136139259726451</v>
+        <v>0.9136139259726449</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8970996205609432</v>
+        <v>0.896462506261772</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9282580681346213</v>
+        <v>0.9290387422871521</v>
       </c>
     </row>
     <row r="16">
@@ -7469,19 +7469,19 @@
         <v>16497</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9090</v>
+        <v>8756</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29678</v>
+        <v>28543</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02133581986118239</v>
+        <v>0.02133581986118238</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01175648896251876</v>
+        <v>0.01132373932711359</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03838288202842738</v>
+        <v>0.03691436777605483</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -7490,19 +7490,19 @@
         <v>18940</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11718</v>
+        <v>11581</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30861</v>
+        <v>31627</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02365061219910759</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01463248506506899</v>
+        <v>0.01446113275545544</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03853543658720997</v>
+        <v>0.03949243303753142</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -7511,19 +7511,19 @@
         <v>35438</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25124</v>
+        <v>24573</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50267</v>
+        <v>52940</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02251353385908298</v>
+        <v>0.02251353385908297</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01596153928333254</v>
+        <v>0.01561118499945863</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03193486194437477</v>
+        <v>0.03363308339095222</v>
       </c>
     </row>
     <row r="17">
@@ -7540,19 +7540,19 @@
         <v>61316</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45261</v>
+        <v>43503</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>85471</v>
+        <v>84243</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07929985330922029</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05853613096962528</v>
+        <v>0.05626313258046713</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1105398554650412</v>
+        <v>0.1089520572748343</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -7561,19 +7561,19 @@
         <v>39223</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29349</v>
+        <v>28796</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53277</v>
+        <v>52276</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04897752860466626</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03664688295221089</v>
+        <v>0.03595736442093536</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0665252987176095</v>
+        <v>0.0652758082421423</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>99</v>
@@ -7582,19 +7582,19 @@
         <v>100539</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>80111</v>
+        <v>80265</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>125543</v>
+        <v>125790</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06387254016827186</v>
+        <v>0.06387254016827185</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05089441572467951</v>
+        <v>0.05099243101235827</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0797573612303709</v>
+        <v>0.07991456596633101</v>
       </c>
     </row>
     <row r="18">
@@ -7733,19 +7733,19 @@
         <v>838396</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>817131</v>
+        <v>813941</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>856855</v>
+        <v>857663</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8889100609175269</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8663641170560584</v>
+        <v>0.8629815515601922</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9084812221812625</v>
+        <v>0.9093380259718277</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1386</v>
@@ -7754,19 +7754,19 @@
         <v>987635</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>971608</v>
+        <v>971597</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1003440</v>
+        <v>1002252</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9222038464302166</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9072382707048721</v>
+        <v>0.9072285535897955</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9369618290371937</v>
+        <v>0.9358521037347587</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2241</v>
@@ -7775,19 +7775,19 @@
         <v>1826031</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1798512</v>
+        <v>1800530</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1849747</v>
+        <v>1849374</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9066130497438469</v>
+        <v>0.906613049743847</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8929500416570157</v>
+        <v>0.8939518741831137</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9183880079577228</v>
+        <v>0.9182028939196852</v>
       </c>
     </row>
     <row r="21">
@@ -7804,19 +7804,19 @@
         <v>24607</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16263</v>
+        <v>16282</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>37325</v>
+        <v>36586</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02608914250157534</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01724337606741231</v>
+        <v>0.01726348355436057</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0395737244069421</v>
+        <v>0.03879082076194699</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -7825,19 +7825,19 @@
         <v>12187</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7237</v>
+        <v>7781</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18648</v>
+        <v>19402</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01137934357439407</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.006757544872117198</v>
+        <v>0.007265440317788687</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01741267853270483</v>
+        <v>0.01811686291765833</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>42</v>
@@ -7846,19 +7846,19 @@
         <v>36793</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>26953</v>
+        <v>26885</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>50994</v>
+        <v>49512</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0182676406196084</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01338218107976746</v>
+        <v>0.0133482496099356</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02531828445634641</v>
+        <v>0.02458231829483508</v>
       </c>
     </row>
     <row r="22">
@@ -7875,19 +7875,19 @@
         <v>80170</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64138</v>
+        <v>63318</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100435</v>
+        <v>100891</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08500079658089783</v>
+        <v>0.08500079658089782</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06800209359156223</v>
+        <v>0.067133130049323</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1064862121906349</v>
+        <v>0.1069696117991941</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>101</v>
@@ -7896,19 +7896,19 @@
         <v>71129</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56790</v>
+        <v>57738</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>85404</v>
+        <v>85895</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06641680999538924</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05302726569573032</v>
+        <v>0.05391322848157049</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07974623903608971</v>
+        <v>0.08020450914323195</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>183</v>
@@ -7917,19 +7917,19 @@
         <v>151300</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>129781</v>
+        <v>127677</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>176535</v>
+        <v>172335</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07511930963654452</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06443552431247428</v>
+        <v>0.06339099812633696</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08764830270024426</v>
+        <v>0.0855632925538608</v>
       </c>
     </row>
     <row r="23">
@@ -8068,19 +8068,19 @@
         <v>3044333</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3003424</v>
+        <v>2999706</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3081349</v>
+        <v>3083496</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8966974169554189</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8846478622459003</v>
+        <v>0.8835528254480812</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9076006006381915</v>
+        <v>0.9082327995443491</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4849</v>
@@ -8089,19 +8089,19 @@
         <v>3372115</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3344014</v>
+        <v>3342692</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3400267</v>
+        <v>3399261</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.9293594864795446</v>
+        <v>0.9293594864795447</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9216149132423106</v>
+        <v>0.921250544087879</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9371181850682632</v>
+        <v>0.9368409226625601</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7762</v>
@@ -8110,19 +8110,19 @@
         <v>6416447</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6365794</v>
+        <v>6365685</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6464171</v>
+        <v>6460582</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9135711056431931</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9063591424265263</v>
+        <v>0.906343601330422</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9203659647081708</v>
+        <v>0.9198550251786399</v>
       </c>
     </row>
     <row r="26">
@@ -8139,19 +8139,19 @@
         <v>61538</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46014</v>
+        <v>46925</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>81378</v>
+        <v>83164</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0181256876064581</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01355336056525676</v>
+        <v>0.01382147955426248</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02396952694630638</v>
+        <v>0.02449579462345478</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>61</v>
@@ -8160,19 +8160,19 @@
         <v>45025</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>34651</v>
+        <v>34725</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>60901</v>
+        <v>60076</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01240894696513624</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00954995029455508</v>
+        <v>0.00957013991458444</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01678437246680657</v>
+        <v>0.01655715705185064</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>114</v>
@@ -8181,19 +8181,19 @@
         <v>106563</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>87251</v>
+        <v>87012</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>129730</v>
+        <v>132515</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.01517233825365116</v>
+        <v>0.01517233825365115</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01242280826254858</v>
+        <v>0.01238875762261124</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01847084553632303</v>
+        <v>0.01886749579773644</v>
       </c>
     </row>
     <row r="27">
@@ -8210,19 +8210,19 @@
         <v>289180</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>254552</v>
+        <v>255592</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>326879</v>
+        <v>331488</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08517689543812298</v>
+        <v>0.08517689543812297</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07497753841882361</v>
+        <v>0.07528385090634038</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09628113875794435</v>
+        <v>0.09763871018904573</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>313</v>
@@ -8231,19 +8231,19 @@
         <v>211289</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>184996</v>
+        <v>187799</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>236010</v>
+        <v>238049</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05823156655531921</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05098521046769</v>
+        <v>0.05175778008272439</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06504460680474894</v>
+        <v>0.06560671309336552</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>599</v>
@@ -8252,19 +8252,19 @@
         <v>500469</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>454688</v>
+        <v>462586</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>544156</v>
+        <v>549797</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0712565561031557</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06473826122025185</v>
+        <v>0.0658628525036581</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07747675101597562</v>
+        <v>0.07827982737484671</v>
       </c>
     </row>
     <row r="28">
